--- a/DB設計書_エンティティ一覧E-R図.xlsx
+++ b/DB設計書_エンティティ一覧E-R図.xlsx
@@ -5,18 +5,18 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a9aafe843049a37/ドキュメント/2023/php2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a9aafe843049a37/ドキュメント/GitHub/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BBE9D91-EC20-4C12-96E7-BF503591D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{1BBE9D91-EC20-4C12-96E7-BF503591D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97BAC47-99B8-4EAA-9193-1CE5EA1092D0}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="1092" windowWidth="17652" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1368" windowWidth="17652" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧E-R図" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'エンティティ一覧E-R図'!$A$1:$F$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'エンティティ一覧E-R図'!$A$1:$F$68</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="4"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワードテーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マネーテーブル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -204,10 +200,6 @@
   </si>
   <si>
     <t>Uzer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Password</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -222,13 +214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワードの情報</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>必要なお金の情報</t>
     <rPh sb="0" eb="2">
       <t>ヒツヨウ</t>
@@ -285,102 +270,94 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>*パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#*マネーID（PK）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*ユーザーID（FK）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#*ユーザーID（PK）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*カテゴリーID（FK）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#*カテゴリーID(PK)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>*カテゴリー名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリーの情報</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お金管理システム</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お金管理システム　データモデル設計書</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>お金管理システムにおけるデータモデルを示す</t>
+    <rPh sb="1" eb="2">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>*生年月日</t>
     <rPh sb="1" eb="5">
       <t>セイネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>*パスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#*マネーID（PK）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>*ユーザーID（FK）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#*ユーザーID（PK）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カテゴリー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>*カテゴリーID（FK）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#*ユーザーID（PK,FK）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#*カテゴリーID(PK)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>*カテゴリー名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カテゴリーの情報</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>お金管理システム</t>
-    <rPh sb="1" eb="2">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>お金管理システム　データモデル設計書</t>
-    <rPh sb="1" eb="2">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>お金管理システムにおけるデータモデルを示す</t>
-    <rPh sb="1" eb="2">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -707,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,12 +750,36 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,32 +798,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -850,13 +830,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8193</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>131097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1720645</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>131097</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -904,70 +884,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1032387</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1040581</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>122904</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA56967-5D16-B0CC-8D17-92AE75AB5E15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4653935" y="7243097"/>
-          <a:ext cx="8194" cy="802968"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>729226</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>8194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>729226</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1305,10 +1230,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -1323,22 +1248,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
@@ -1349,10 +1274,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1360,17 +1285,17 @@
       <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="23">
         <v>45300</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
@@ -1381,10 +1306,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
@@ -1392,21 +1317,25 @@
       <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="23">
+        <v>45301</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
@@ -1439,10 +1368,10 @@
       <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -1452,111 +1381,97 @@
         <v>22</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="30"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>3</v>
-      </c>
-      <c r="B12" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="30"/>
+      <c r="E12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="39"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1572,74 +1487,77 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
+      <c r="B22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="35" t="s">
+      <c r="B23" s="24" t="s">
         <v>37</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>44</v>
+      <c r="B24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>38</v>
+      <c r="B25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="B26" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>39</v>
+      <c r="B26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="33" t="s">
-        <v>34</v>
+      <c r="B27" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="33" t="s">
-        <v>46</v>
+      <c r="B28" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="33" t="s">
-        <v>35</v>
+      <c r="B29" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="34" t="s">
-        <v>36</v>
-      </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1648,52 +1566,46 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
+      <c r="D32" s="39"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="D33" s="36" t="s">
-        <v>40</v>
-      </c>
+      <c r="D33" s="40"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="D34" s="33" t="s">
-        <v>47</v>
-      </c>
+      <c r="D34" s="40"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="D35" s="34" t="s">
-        <v>41</v>
-      </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
+      <c r="B36" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="35" t="s">
-        <v>45</v>
+      <c r="B37" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="37" t="s">
-        <v>48</v>
+      <c r="B38" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="34" t="s">
-        <v>49</v>
-      </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1809,38 +1721,33 @@
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1851,15 +1758,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BFC0EF9402E0BC4D950BE0463238F058" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="29547883fa4e1f04516c4a4ed9dcf586">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e902a8de-3658-41ea-a6f5-6cbcd296e962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba70f00e0c2599a16aec11a68ccb0edb" ns2:_="">
     <xsd:import namespace="e902a8de-3658-41ea-a6f5-6cbcd296e962"/>
@@ -2003,6 +1901,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2012,14 +1919,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEBD8FB-4ACF-49B5-84A3-1B13CF026D05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2037,20 +1936,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e902a8de-3658-41ea-a6f5-6cbcd296e962"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e902a8de-3658-41ea-a6f5-6cbcd296e962"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DB設計書_エンティティ一覧E-R図.xlsx
+++ b/DB設計書_エンティティ一覧E-R図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a9aafe843049a37/ドキュメント/GitHub/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{1BBE9D91-EC20-4C12-96E7-BF503591D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97BAC47-99B8-4EAA-9193-1CE5EA1092D0}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{1BBE9D91-EC20-4C12-96E7-BF503591D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D5C7B7-AB49-42D5-A758-6AB24DDD2479}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1368" windowWidth="17652" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧E-R図" sheetId="11" r:id="rId1"/>
@@ -355,10 +355,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>*生年月日</t>
-    <rPh sb="1" eb="5">
-      <t>セイネンガッピ</t>
-    </rPh>
+    <t>*メールアドレス</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -684,7 +681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,38 +768,35 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -885,39 +879,40 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>729226</xdr:colOff>
+      <xdr:colOff>708338</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>8194</xdr:rowOff>
+      <xdr:rowOff>53662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>729226</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>708338</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128789</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C88B349-0C13-4CF1-41D3-7C616D91F9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D4CCAF-A481-B98F-AEDE-94059C22A540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1073355" y="7792065"/>
-          <a:ext cx="0" cy="827548"/>
+        <a:xfrm flipV="1">
+          <a:off x="1051775" y="7394620"/>
+          <a:ext cx="0" cy="772732"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -938,6 +933,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1232,8 +1231,8 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="70" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="71" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -1248,14 +1247,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -1368,10 +1367,10 @@
       <c r="D9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -1386,10 +1385,10 @@
       <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -1404,10 +1403,10 @@
       <c r="D11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
@@ -1422,42 +1421,42 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="32"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
@@ -1490,7 +1489,7 @@
       <c r="B22" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="3"/>
@@ -1500,7 +1499,7 @@
       <c r="B23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="3"/>
@@ -1521,7 +1520,7 @@
         <v>30</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -1530,8 +1529,8 @@
       <c r="B26" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>49</v>
+      <c r="D26" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -1540,6 +1539,7 @@
       <c r="B27" s="24" t="s">
         <v>41</v>
       </c>
+      <c r="D27" s="25"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1566,17 +1566,14 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="D32" s="39"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="D33" s="40"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="D34" s="40"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1730,6 +1727,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -1739,11 +1741,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1758,6 +1755,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BFC0EF9402E0BC4D950BE0463238F058" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="29547883fa4e1f04516c4a4ed9dcf586">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e902a8de-3658-41ea-a6f5-6cbcd296e962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba70f00e0c2599a16aec11a68ccb0edb" ns2:_="">
     <xsd:import namespace="e902a8de-3658-41ea-a6f5-6cbcd296e962"/>
@@ -1901,15 +1907,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1919,6 +1916,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEEBD8FB-4ACF-49B5-84A3-1B13CF026D05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1936,26 +1941,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="e902a8de-3658-41ea-a6f5-6cbcd296e962"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>